--- a/Postprocessing_Ambiguity/Ambiguity.xlsx
+++ b/Postprocessing_Ambiguity/Ambiguity.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dario\Dropbox\00_Semesterarbeit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dario\Documents\SemThes\Postprocessing_Ambiguity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFF3884-61B2-415D-BE17-744B15736A87}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D74503-AA5C-44F0-A4D2-E7F05B4672D7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17025" activeTab="3" xr2:uid="{91B92DB0-04EC-4F95-AF3A-3AC6549801F8}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="3">
   <si>
     <t xml:space="preserve"> -   </t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>Std. Dev.</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
 </sst>
 </file>
@@ -90,11 +87,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -409,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A9185FF-6DDD-4C0F-ABFF-909DE6693DDC}">
-  <dimension ref="A1:X18"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:B1048576"/>
@@ -3512,8 +3510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B41B264-21C3-4259-AC5E-A19DF24612E5}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3526,43 +3524,43 @@
         <v>0.5</v>
       </c>
       <c r="D1">
-        <v>0.5</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="E1">
         <v>0.5</v>
       </c>
       <c r="F1">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="G1">
         <v>0.5</v>
-      </c>
-      <c r="G1">
-        <v>0.53300000000000003</v>
       </c>
       <c r="H1">
         <v>0.53300000000000003</v>
       </c>
       <c r="I1">
-        <v>0.53300000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="J1">
-        <v>0.53300000000000003</v>
+        <v>0.6</v>
       </c>
       <c r="K1">
         <v>0.56599999999999995</v>
       </c>
       <c r="L1">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="M1">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="N1">
+        <v>0.6</v>
+      </c>
+      <c r="O1">
         <v>0.56599999999999995</v>
       </c>
-      <c r="M1">
+      <c r="P1">
         <v>0.56599999999999995</v>
-      </c>
-      <c r="N1">
-        <v>0.56599999999999995</v>
-      </c>
-      <c r="O1">
-        <v>0.6</v>
-      </c>
-      <c r="P1">
-        <v>0.6</v>
       </c>
       <c r="Q1">
         <v>0.6</v>
@@ -3582,43 +3580,43 @@
         <v>28</v>
       </c>
       <c r="D2">
+        <v>28</v>
+      </c>
+      <c r="E2">
         <v>30</v>
       </c>
-      <c r="E2">
+      <c r="F2">
+        <v>28</v>
+      </c>
+      <c r="G2">
         <v>32</v>
-      </c>
-      <c r="F2">
-        <v>34</v>
-      </c>
-      <c r="G2">
-        <v>28</v>
       </c>
       <c r="H2">
         <v>30</v>
       </c>
       <c r="I2">
+        <v>34</v>
+      </c>
+      <c r="J2">
+        <v>28</v>
+      </c>
+      <c r="K2">
+        <v>30</v>
+      </c>
+      <c r="L2">
         <v>32</v>
       </c>
-      <c r="J2">
+      <c r="M2">
         <v>34</v>
       </c>
-      <c r="K2">
-        <v>28</v>
-      </c>
-      <c r="L2">
+      <c r="N2">
         <v>30</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>32</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>34</v>
-      </c>
-      <c r="O2">
-        <v>28</v>
-      </c>
-      <c r="P2">
-        <v>30</v>
       </c>
       <c r="Q2">
         <v>32</v>
@@ -3634,139 +3632,139 @@
       <c r="B3">
         <v>28</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <f>('Blue channel'!G3+'Green channel'!G3+'Red channel'!G3)/3</f>
+        <v>741.82333333333338</v>
+      </c>
+      <c r="E3" s="3">
         <f>('Blue channel'!D3+'Green channel'!D3+'Red channel'!D3)/3</f>
         <v>754.86</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="3">
+        <f>('Blue channel'!K3+'Green channel'!K3+'Red channel'!K3)/3</f>
+        <v>2822.5933333333337</v>
+      </c>
+      <c r="G3" s="3">
         <f>('Blue channel'!E3+'Green channel'!E3+'Red channel'!E3)/3</f>
         <v>2850.75</v>
       </c>
-      <c r="F3" s="1">
+      <c r="H3" s="3">
+        <f>('Blue channel'!H3+'Green channel'!H3+'Red channel'!H3)/3</f>
+        <v>3020.9933333333333</v>
+      </c>
+      <c r="I3" s="3">
         <f>('Blue channel'!F3+'Green channel'!F3+'Red channel'!F3)/3</f>
         <v>6198.086666666667</v>
       </c>
-      <c r="G3" s="1">
-        <f>('Blue channel'!G3+'Green channel'!G3+'Red channel'!G3)/3</f>
-        <v>741.82333333333338</v>
-      </c>
-      <c r="H3" s="1">
-        <f>('Blue channel'!H3+'Green channel'!H3+'Red channel'!H3)/3</f>
-        <v>3020.9933333333333</v>
-      </c>
-      <c r="I3" s="1">
+      <c r="J3" s="3">
+        <f>('Blue channel'!O3+'Green channel'!O3+'Red channel'!O3)/3</f>
+        <v>6300.8433333333332</v>
+      </c>
+      <c r="K3" s="3">
+        <f>('Blue channel'!L3+'Green channel'!L3+'Red channel'!L3)/3</f>
+        <v>6776.4533333333338</v>
+      </c>
+      <c r="L3" s="3">
         <f>('Blue channel'!I3+'Green channel'!I3+'Red channel'!I3)/3</f>
         <v>6785.0400000000009</v>
       </c>
-      <c r="J3" s="1">
+      <c r="M3" s="3">
         <f>('Blue channel'!J3+'Green channel'!J3+'Red channel'!J3)/3</f>
         <v>11876.11</v>
       </c>
-      <c r="K3" s="1">
-        <f>('Blue channel'!K3+'Green channel'!K3+'Red channel'!K3)/3</f>
-        <v>2822.5933333333337</v>
-      </c>
-      <c r="L3" s="1">
-        <f>('Blue channel'!L3+'Green channel'!L3+'Red channel'!L3)/3</f>
-        <v>6776.4533333333338</v>
-      </c>
-      <c r="M3" s="1">
+      <c r="N3" s="3">
+        <f>('Blue channel'!P3+'Green channel'!P3+'Red channel'!P3)/3</f>
+        <v>12154.116666666667</v>
+      </c>
+      <c r="O3" s="3">
         <f>('Blue channel'!M3+'Green channel'!M3+'Red channel'!M3)/3</f>
         <v>12329.37</v>
       </c>
-      <c r="N3" s="1">
+      <c r="P3" s="3">
         <f>('Blue channel'!N3+'Green channel'!N3+'Red channel'!N3)/3</f>
         <v>19280.850000000002</v>
       </c>
-      <c r="O3" s="1">
-        <f>('Blue channel'!O3+'Green channel'!O3+'Red channel'!O3)/3</f>
-        <v>6300.8433333333332</v>
-      </c>
-      <c r="P3" s="1">
-        <f>('Blue channel'!P3+'Green channel'!P3+'Red channel'!P3)/3</f>
-        <v>12154.116666666667</v>
-      </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="3">
         <f>('Blue channel'!Q3+'Green channel'!Q3+'Red channel'!Q3)/3</f>
         <v>19610.93</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="3">
         <f>('Blue channel'!R3+'Green channel'!R3+'Red channel'!R3)/3</f>
         <v>28630.819999999996</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.5</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="B4">
-        <v>30</v>
-      </c>
-      <c r="C4" s="1">
-        <f>('Blue channel'!C4+'Green channel'!C4+'Red channel'!C4)/3</f>
-        <v>754.86</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <f>('Blue channel'!E4+'Green channel'!E4+'Red channel'!E4)/3</f>
-        <v>719.63333333333333</v>
-      </c>
-      <c r="F4" s="1">
-        <f>('Blue channel'!F4+'Green channel'!F4+'Red channel'!F4)/3</f>
-        <v>2718.39</v>
-      </c>
-      <c r="G4" s="1">
-        <f>('Blue channel'!G4+'Green channel'!G4+'Red channel'!G4)/3</f>
+        <v>28</v>
+      </c>
+      <c r="C4" s="3">
+        <f>('Blue channel'!C7+'Green channel'!C7+'Red channel'!C7)/3</f>
+        <v>741.82333333333338</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <f>('Blue channel'!D7+'Green channel'!D7+'Red channel'!D7)/3</f>
         <v>26.03</v>
       </c>
-      <c r="H4" s="1">
-        <f>('Blue channel'!H4+'Green channel'!H4+'Red channel'!H4)/3</f>
-        <v>810.04333333333341</v>
-      </c>
-      <c r="I4" s="1">
-        <f>('Blue channel'!I4+'Green channel'!I4+'Red channel'!I4)/3</f>
-        <v>3114.686666666667</v>
-      </c>
-      <c r="J4" s="1">
-        <f>('Blue channel'!J4+'Green channel'!J4+'Red channel'!J4)/3</f>
-        <v>6800.4533333333338</v>
-      </c>
-      <c r="K4" s="1">
-        <f>('Blue channel'!K4+'Green channel'!K4+'Red channel'!K4)/3</f>
-        <v>717.78666666666652</v>
-      </c>
-      <c r="L4" s="1">
-        <f>('Blue channel'!L4+'Green channel'!L4+'Red channel'!L4)/3</f>
-        <v>3115.2466666666664</v>
-      </c>
-      <c r="M4" s="1">
-        <f>('Blue channel'!M4+'Green channel'!M4+'Red channel'!M4)/3</f>
-        <v>7148.6699999999992</v>
-      </c>
-      <c r="N4" s="1">
-        <f>('Blue channel'!N4+'Green channel'!N4+'Red channel'!N4)/3</f>
-        <v>12641.816666666666</v>
-      </c>
-      <c r="O4" s="1">
-        <f>('Blue channel'!O4+'Green channel'!O4+'Red channel'!O4)/3</f>
-        <v>2802.5933333333337</v>
-      </c>
-      <c r="P4" s="1">
-        <f>('Blue channel'!P4+'Green channel'!P4+'Red channel'!P4)/3</f>
-        <v>7022.7633333333333</v>
-      </c>
-      <c r="Q4" s="1">
-        <f>('Blue channel'!Q4+'Green channel'!Q4+'Red channel'!Q4)/3</f>
-        <v>12915.373333333335</v>
-      </c>
-      <c r="R4" s="1">
-        <f>('Blue channel'!R4+'Green channel'!R4+'Red channel'!R4)/3</f>
-        <v>20416.176666666666</v>
+      <c r="F4" s="3">
+        <f>('Blue channel'!K7+'Green channel'!K7+'Red channel'!K7)/3</f>
+        <v>720.68666666666661</v>
+      </c>
+      <c r="G4" s="3">
+        <f>('Blue channel'!E7+'Green channel'!E7+'Red channel'!E7)/3</f>
+        <v>748.7600000000001</v>
+      </c>
+      <c r="H4" s="3">
+        <f>('Blue channel'!H7+'Green channel'!H7+'Red channel'!H7)/3</f>
+        <v>822.32666666666671</v>
+      </c>
+      <c r="I4" s="3">
+        <f>('Blue channel'!F7+'Green channel'!F7+'Red channel'!F7)/3</f>
+        <v>2767.9466666666667</v>
+      </c>
+      <c r="J4" s="3">
+        <f>('Blue channel'!O7+'Green channel'!O7+'Red channel'!O7)/3</f>
+        <v>2814.7233333333334</v>
+      </c>
+      <c r="K4" s="3">
+        <f>('Blue channel'!L7+'Green channel'!L7+'Red channel'!L7)/3</f>
+        <v>3141.4966666666674</v>
+      </c>
+      <c r="L4" s="3">
+        <f>('Blue channel'!I7+'Green channel'!I7+'Red channel'!I7)/3</f>
+        <v>3151.1733333333336</v>
+      </c>
+      <c r="M4" s="3">
+        <f>('Blue channel'!J7+'Green channel'!J7+'Red channel'!J7)/3</f>
+        <v>6865.2333333333327</v>
+      </c>
+      <c r="N4" s="3">
+        <f>('Blue channel'!P7+'Green channel'!P7+'Red channel'!P7)/3</f>
+        <v>7058.4766666666665</v>
+      </c>
+      <c r="O4" s="3">
+        <f>('Blue channel'!M7+'Green channel'!M7+'Red channel'!M7)/3</f>
+        <v>7199.8533333333335</v>
+      </c>
+      <c r="P4" s="3">
+        <f>('Blue channel'!N7+'Green channel'!N7+'Red channel'!N7)/3</f>
+        <v>12716.529999999999</v>
+      </c>
+      <c r="Q4" s="3">
+        <f>('Blue channel'!Q7+'Green channel'!Q7+'Red channel'!Q7)/3</f>
+        <v>12977.62</v>
+      </c>
+      <c r="R4" s="3">
+        <f>('Blue channel'!R7+'Green channel'!R7+'Red channel'!R7)/3</f>
+        <v>20507.413333333334</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -3774,212 +3772,212 @@
         <v>0.5</v>
       </c>
       <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="C5" s="3">
+        <f>('Blue channel'!C4+'Green channel'!C4+'Red channel'!C4)/3</f>
+        <v>754.86</v>
+      </c>
+      <c r="D5" s="3">
+        <f>('Blue channel'!G4+'Green channel'!G4+'Red channel'!G4)/3</f>
+        <v>26.03</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <f>('Blue channel'!K4+'Green channel'!K4+'Red channel'!K4)/3</f>
+        <v>717.78666666666652</v>
+      </c>
+      <c r="G5" s="3">
+        <f>('Blue channel'!E4+'Green channel'!E4+'Red channel'!E4)/3</f>
+        <v>719.63333333333333</v>
+      </c>
+      <c r="H5" s="3">
+        <f>('Blue channel'!H4+'Green channel'!H4+'Red channel'!H4)/3</f>
+        <v>810.04333333333341</v>
+      </c>
+      <c r="I5" s="3">
+        <f>('Blue channel'!F4+'Green channel'!F4+'Red channel'!F4)/3</f>
+        <v>2718.39</v>
+      </c>
+      <c r="J5" s="3">
+        <f>('Blue channel'!O4+'Green channel'!O4+'Red channel'!O4)/3</f>
+        <v>2802.5933333333337</v>
+      </c>
+      <c r="K5" s="3">
+        <f>('Blue channel'!L4+'Green channel'!L4+'Red channel'!L4)/3</f>
+        <v>3115.2466666666664</v>
+      </c>
+      <c r="L5" s="3">
+        <f>('Blue channel'!I4+'Green channel'!I4+'Red channel'!I4)/3</f>
+        <v>3114.686666666667</v>
+      </c>
+      <c r="M5" s="3">
+        <f>('Blue channel'!J4+'Green channel'!J4+'Red channel'!J4)/3</f>
+        <v>6800.4533333333338</v>
+      </c>
+      <c r="N5" s="3">
+        <f>('Blue channel'!P4+'Green channel'!P4+'Red channel'!P4)/3</f>
+        <v>7022.7633333333333</v>
+      </c>
+      <c r="O5" s="3">
+        <f>('Blue channel'!M4+'Green channel'!M4+'Red channel'!M4)/3</f>
+        <v>7148.6699999999992</v>
+      </c>
+      <c r="P5" s="3">
+        <f>('Blue channel'!N4+'Green channel'!N4+'Red channel'!N4)/3</f>
+        <v>12641.816666666666</v>
+      </c>
+      <c r="Q5" s="3">
+        <f>('Blue channel'!Q4+'Green channel'!Q4+'Red channel'!Q4)/3</f>
+        <v>12915.373333333335</v>
+      </c>
+      <c r="R5" s="3">
+        <f>('Blue channel'!R4+'Green channel'!R4+'Red channel'!R4)/3</f>
+        <v>20416.176666666666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="B6">
+        <v>28</v>
+      </c>
+      <c r="C6" s="3">
+        <f>('Blue channel'!C11+'Green channel'!C11+'Red channel'!C11)/3</f>
+        <v>2822.5933333333337</v>
+      </c>
+      <c r="D6" s="3">
+        <f>('Blue channel'!G11+'Green channel'!G11+'Red channel'!G11)/3</f>
+        <v>720.68666666666661</v>
+      </c>
+      <c r="E6" s="3">
+        <f>('Blue channel'!D11+'Green channel'!D11+'Red channel'!D11)/3</f>
+        <v>717.78666666666652</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <f>('Blue channel'!E11+'Green channel'!E11+'Red channel'!E11)/3</f>
+        <v>51.993333333333332</v>
+      </c>
+      <c r="H6" s="3">
+        <f>('Blue channel'!H11+'Green channel'!H11+'Red channel'!H11)/3</f>
+        <v>31</v>
+      </c>
+      <c r="I6" s="3">
+        <f>('Blue channel'!F11+'Green channel'!F11+'Red channel'!F11)/3</f>
+        <v>748.89666666666665</v>
+      </c>
+      <c r="J6" s="3">
+        <f>('Blue channel'!O11+'Green channel'!O11+'Red channel'!O11)/3</f>
+        <v>737.39</v>
+      </c>
+      <c r="K6" s="3">
+        <f>('Blue channel'!L11+'Green channel'!L11+'Red channel'!L11)/3</f>
+        <v>909.01666666666677</v>
+      </c>
+      <c r="L6" s="3">
+        <f>('Blue channel'!I11+'Green channel'!I11+'Red channel'!I11)/3</f>
+        <v>928.07666666666648</v>
+      </c>
+      <c r="M6" s="3">
+        <f>('Blue channel'!J11+'Green channel'!J11+'Red channel'!J11)/3</f>
+        <v>3261.8833333333332</v>
+      </c>
+      <c r="N6" s="3">
+        <f>('Blue channel'!P11+'Green channel'!P11+'Red channel'!P11)/3</f>
+        <v>3375.9233333333336</v>
+      </c>
+      <c r="O6" s="3">
+        <f>('Blue channel'!M11+'Green channel'!M11+'Red channel'!M11)/3</f>
+        <v>3480.0699999999997</v>
+      </c>
+      <c r="P6" s="3">
+        <f>('Blue channel'!N11+'Green channel'!N11+'Red channel'!N11)/3</f>
+        <v>7569.6499999999987</v>
+      </c>
+      <c r="Q6" s="3">
+        <f>('Blue channel'!Q11+'Green channel'!Q11+'Red channel'!Q11)/3</f>
+        <v>7758.4433333333327</v>
+      </c>
+      <c r="R6" s="3">
+        <f>('Blue channel'!R11+'Green channel'!R11+'Red channel'!R11)/3</f>
+        <v>13797.333333333334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.5</v>
+      </c>
+      <c r="B7">
         <v>32</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C7" s="3">
         <f>('Blue channel'!C5+'Green channel'!C5+'Red channel'!C5)/3</f>
         <v>2850.75</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D7" s="3">
+        <f>('Blue channel'!G5+'Green channel'!G5+'Red channel'!G5)/3</f>
+        <v>748.7600000000001</v>
+      </c>
+      <c r="E7" s="3">
         <f>('Blue channel'!D5+'Green channel'!D5+'Red channel'!D5)/3</f>
         <v>719.63333333333333</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="F7" s="3">
+        <f>('Blue channel'!K5+'Green channel'!K5+'Red channel'!K5)/3</f>
+        <v>51.993333333333332</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <f>('Blue channel'!H5+'Green channel'!H5+'Red channel'!H5)/3</f>
+        <v>27.936666666666667</v>
+      </c>
+      <c r="I7" s="3">
         <f>('Blue channel'!F5+'Green channel'!F5+'Red channel'!F5)/3</f>
         <v>686.74666666666656</v>
       </c>
-      <c r="G5" s="1">
-        <f>('Blue channel'!G5+'Green channel'!G5+'Red channel'!G5)/3</f>
-        <v>748.7600000000001</v>
-      </c>
-      <c r="H5" s="1">
-        <f>('Blue channel'!H5+'Green channel'!H5+'Red channel'!H5)/3</f>
-        <v>27.936666666666667</v>
-      </c>
-      <c r="I5" s="1">
+      <c r="J7" s="3">
+        <f>('Blue channel'!O5+'Green channel'!O5+'Red channel'!O5)/3</f>
+        <v>759.54333333333341</v>
+      </c>
+      <c r="K7" s="3">
+        <f>('Blue channel'!L5+'Green channel'!L5+'Red channel'!L5)/3</f>
+        <v>906.04333333333341</v>
+      </c>
+      <c r="L7" s="3">
         <f>('Blue channel'!I5+'Green channel'!I5+'Red channel'!I5)/3</f>
         <v>895.80666666666673</v>
       </c>
-      <c r="J5" s="1">
+      <c r="M7" s="3">
         <f>('Blue channel'!J5+'Green channel'!J5+'Red channel'!J5)/3</f>
         <v>3194.4366666666665</v>
       </c>
-      <c r="K5" s="1">
-        <f>('Blue channel'!K5+'Green channel'!K5+'Red channel'!K5)/3</f>
-        <v>51.993333333333332</v>
-      </c>
-      <c r="L5" s="1">
-        <f>('Blue channel'!L5+'Green channel'!L5+'Red channel'!L5)/3</f>
-        <v>906.04333333333341</v>
-      </c>
-      <c r="M5" s="1">
+      <c r="N7" s="3">
+        <f>('Blue channel'!P5+'Green channel'!P5+'Red channel'!P5)/3</f>
+        <v>3365.4833333333336</v>
+      </c>
+      <c r="O7" s="3">
         <f>('Blue channel'!M5+'Green channel'!M5+'Red channel'!M5)/3</f>
         <v>3441.7033333333334</v>
       </c>
-      <c r="N5" s="1">
+      <c r="P7" s="3">
         <f>('Blue channel'!N5+'Green channel'!N5+'Red channel'!N5)/3</f>
         <v>7490.2733333333335</v>
       </c>
-      <c r="O5" s="1">
-        <f>('Blue channel'!O5+'Green channel'!O5+'Red channel'!O5)/3</f>
-        <v>759.54333333333341</v>
-      </c>
-      <c r="P5" s="1">
-        <f>('Blue channel'!P5+'Green channel'!P5+'Red channel'!P5)/3</f>
-        <v>3365.4833333333336</v>
-      </c>
-      <c r="Q5" s="1">
+      <c r="Q7" s="3">
         <f>('Blue channel'!Q5+'Green channel'!Q5+'Red channel'!Q5)/3</f>
         <v>7712.3499999999995</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R7" s="3">
         <f>('Blue channel'!R5+'Green channel'!R5+'Red channel'!R5)/3</f>
         <v>13710.873333333335</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.5</v>
-      </c>
-      <c r="B6">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1">
-        <f>('Blue channel'!C6+'Green channel'!C6+'Red channel'!C6)/3</f>
-        <v>6198.086666666667</v>
-      </c>
-      <c r="D6" s="1">
-        <f>('Blue channel'!D6+'Green channel'!D6+'Red channel'!D6)/3</f>
-        <v>2718.39</v>
-      </c>
-      <c r="E6" s="1">
-        <f>('Blue channel'!E6+'Green channel'!E6+'Red channel'!E6)/3</f>
-        <v>686.74666666666656</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="1">
-        <f>('Blue channel'!G6+'Green channel'!G6+'Red channel'!G6)/3</f>
-        <v>2767.9466666666667</v>
-      </c>
-      <c r="H6" s="1">
-        <f>('Blue channel'!H6+'Green channel'!H6+'Red channel'!H6)/3</f>
-        <v>622.94333333333327</v>
-      </c>
-      <c r="I6" s="1">
-        <f>('Blue channel'!I6+'Green channel'!I6+'Red channel'!I6)/3</f>
-        <v>43.203333333333326</v>
-      </c>
-      <c r="J6" s="1">
-        <f>('Blue channel'!J6+'Green channel'!J6+'Red channel'!J6)/3</f>
-        <v>976.74000000000012</v>
-      </c>
-      <c r="K6" s="1">
-        <f>('Blue channel'!K6+'Green channel'!K6+'Red channel'!K6)/3</f>
-        <v>748.89666666666665</v>
-      </c>
-      <c r="L6" s="1">
-        <f>('Blue channel'!L6+'Green channel'!L6+'Red channel'!L6)/3</f>
-        <v>69.089999999999989</v>
-      </c>
-      <c r="M6" s="1">
-        <f>('Blue channel'!M6+'Green channel'!M6+'Red channel'!M6)/3</f>
-        <v>1127.3433333333332</v>
-      </c>
-      <c r="N6" s="1">
-        <f>('Blue channel'!N6+'Green channel'!N6+'Red channel'!N6)/3</f>
-        <v>3755.3833333333337</v>
-      </c>
-      <c r="O6" s="1">
-        <f>('Blue channel'!O6+'Green channel'!O6+'Red channel'!O6)/3</f>
-        <v>84.913333333333327</v>
-      </c>
-      <c r="P6" s="1">
-        <f>('Blue channel'!P6+'Green channel'!P6+'Red channel'!P6)/3</f>
-        <v>1101.1400000000001</v>
-      </c>
-      <c r="Q6" s="1">
-        <f>('Blue channel'!Q6+'Green channel'!Q6+'Red channel'!Q6)/3</f>
-        <v>3923.1666666666665</v>
-      </c>
-      <c r="R6" s="1">
-        <f>('Blue channel'!R6+'Green channel'!R6+'Red channel'!R6)/3</f>
-        <v>8441.7933333333331</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0.53300000000000003</v>
-      </c>
-      <c r="B7">
-        <v>28</v>
-      </c>
-      <c r="C7" s="1">
-        <f>('Blue channel'!C7+'Green channel'!C7+'Red channel'!C7)/3</f>
-        <v>741.82333333333338</v>
-      </c>
-      <c r="D7" s="1">
-        <f>('Blue channel'!D7+'Green channel'!D7+'Red channel'!D7)/3</f>
-        <v>26.03</v>
-      </c>
-      <c r="E7" s="1">
-        <f>('Blue channel'!E7+'Green channel'!E7+'Red channel'!E7)/3</f>
-        <v>748.7600000000001</v>
-      </c>
-      <c r="F7" s="1">
-        <f>('Blue channel'!F7+'Green channel'!F7+'Red channel'!F7)/3</f>
-        <v>2767.9466666666667</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="1">
-        <f>('Blue channel'!H7+'Green channel'!H7+'Red channel'!H7)/3</f>
-        <v>822.32666666666671</v>
-      </c>
-      <c r="I7" s="1">
-        <f>('Blue channel'!I7+'Green channel'!I7+'Red channel'!I7)/3</f>
-        <v>3151.1733333333336</v>
-      </c>
-      <c r="J7" s="1">
-        <f>('Blue channel'!J7+'Green channel'!J7+'Red channel'!J7)/3</f>
-        <v>6865.2333333333327</v>
-      </c>
-      <c r="K7" s="1">
-        <f>('Blue channel'!K7+'Green channel'!K7+'Red channel'!K7)/3</f>
-        <v>720.68666666666661</v>
-      </c>
-      <c r="L7" s="1">
-        <f>('Blue channel'!L7+'Green channel'!L7+'Red channel'!L7)/3</f>
-        <v>3141.4966666666674</v>
-      </c>
-      <c r="M7" s="1">
-        <f>('Blue channel'!M7+'Green channel'!M7+'Red channel'!M7)/3</f>
-        <v>7199.8533333333335</v>
-      </c>
-      <c r="N7" s="1">
-        <f>('Blue channel'!N7+'Green channel'!N7+'Red channel'!N7)/3</f>
-        <v>12716.529999999999</v>
-      </c>
-      <c r="O7" s="1">
-        <f>('Blue channel'!O7+'Green channel'!O7+'Red channel'!O7)/3</f>
-        <v>2814.7233333333334</v>
-      </c>
-      <c r="P7" s="1">
-        <f>('Blue channel'!P7+'Green channel'!P7+'Red channel'!P7)/3</f>
-        <v>7058.4766666666665</v>
-      </c>
-      <c r="Q7" s="1">
-        <f>('Blue channel'!Q7+'Green channel'!Q7+'Red channel'!Q7)/3</f>
-        <v>12977.62</v>
-      </c>
-      <c r="R7" s="1">
-        <f>('Blue channel'!R7+'Green channel'!R7+'Red channel'!R7)/3</f>
-        <v>20507.413333333334</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -3989,210 +3987,210 @@
       <c r="B8">
         <v>30</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <f>('Blue channel'!C8+'Green channel'!C8+'Red channel'!C8)/3</f>
         <v>3020.9933333333333</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="3">
+        <f>('Blue channel'!G8+'Green channel'!G8+'Red channel'!G8)/3</f>
+        <v>822.32666666666671</v>
+      </c>
+      <c r="E8" s="3">
         <f>('Blue channel'!D8+'Green channel'!D8+'Red channel'!D8)/3</f>
         <v>810.04333333333341</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="3">
+        <f>('Blue channel'!K8+'Green channel'!K8+'Red channel'!K8)/3</f>
+        <v>31</v>
+      </c>
+      <c r="G8" s="3">
         <f>('Blue channel'!E8+'Green channel'!E8+'Red channel'!E8)/3</f>
         <v>27.936666666666667</v>
       </c>
-      <c r="F8" s="1">
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <f>('Blue channel'!F8+'Green channel'!F8+'Red channel'!F8)/3</f>
         <v>622.94333333333327</v>
       </c>
-      <c r="G8" s="1">
-        <f>('Blue channel'!G8+'Green channel'!G8+'Red channel'!G8)/3</f>
-        <v>822.32666666666671</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="1">
+      <c r="J8" s="3">
+        <f>('Blue channel'!O8+'Green channel'!O8+'Red channel'!O8)/3</f>
+        <v>649.99333333333334</v>
+      </c>
+      <c r="K8" s="3">
+        <f>('Blue channel'!L8+'Green channel'!L8+'Red channel'!L8)/3</f>
+        <v>801.28666666666675</v>
+      </c>
+      <c r="L8" s="3">
         <f>('Blue channel'!I8+'Green channel'!I8+'Red channel'!I8)/3</f>
         <v>801.46333333333325</v>
       </c>
-      <c r="J8" s="1">
+      <c r="M8" s="3">
         <f>('Blue channel'!J8+'Green channel'!J8+'Red channel'!J8)/3</f>
         <v>3026.6299999999997</v>
       </c>
-      <c r="K8" s="1">
-        <f>('Blue channel'!K8+'Green channel'!K8+'Red channel'!K8)/3</f>
-        <v>31</v>
-      </c>
-      <c r="L8" s="1">
-        <f>('Blue channel'!L8+'Green channel'!L8+'Red channel'!L8)/3</f>
-        <v>801.28666666666675</v>
-      </c>
-      <c r="M8" s="1">
+      <c r="N8" s="3">
+        <f>('Blue channel'!P8+'Green channel'!P8+'Red channel'!P8)/3</f>
+        <v>3164.123333333333</v>
+      </c>
+      <c r="O8" s="3">
         <f>('Blue channel'!M8+'Green channel'!M8+'Red channel'!M8)/3</f>
         <v>3253.0933333333337</v>
       </c>
-      <c r="N8" s="1">
+      <c r="P8" s="3">
         <f>('Blue channel'!N8+'Green channel'!N8+'Red channel'!N8)/3</f>
         <v>7222.7733333333335</v>
       </c>
-      <c r="O8" s="1">
-        <f>('Blue channel'!O8+'Green channel'!O8+'Red channel'!O8)/3</f>
-        <v>649.99333333333334</v>
-      </c>
-      <c r="P8" s="1">
-        <f>('Blue channel'!P8+'Green channel'!P8+'Red channel'!P8)/3</f>
-        <v>3164.123333333333</v>
-      </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="3">
         <f>('Blue channel'!Q8+'Green channel'!Q8+'Red channel'!Q8)/3</f>
         <v>7423.0366666666669</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8" s="3">
         <f>('Blue channel'!R8+'Green channel'!R8+'Red channel'!R8)/3</f>
         <v>13343.093333333332</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.53300000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="B9">
-        <v>32</v>
-      </c>
-      <c r="C9" s="1">
-        <f>('Blue channel'!C9+'Green channel'!C9+'Red channel'!C9)/3</f>
-        <v>6785.0400000000009</v>
-      </c>
-      <c r="D9" s="1">
-        <f>('Blue channel'!D9+'Green channel'!D9+'Red channel'!D9)/3</f>
-        <v>3114.686666666667</v>
-      </c>
-      <c r="E9" s="1">
-        <f>('Blue channel'!E9+'Green channel'!E9+'Red channel'!E9)/3</f>
-        <v>895.80666666666673</v>
-      </c>
-      <c r="F9" s="1">
-        <f>('Blue channel'!F9+'Green channel'!F9+'Red channel'!F9)/3</f>
+        <v>34</v>
+      </c>
+      <c r="C9" s="3">
+        <f>('Blue channel'!C6+'Green channel'!C6+'Red channel'!C6)/3</f>
+        <v>6198.086666666667</v>
+      </c>
+      <c r="D9" s="3">
+        <f>('Blue channel'!G6+'Green channel'!G6+'Red channel'!G6)/3</f>
+        <v>2767.9466666666667</v>
+      </c>
+      <c r="E9" s="3">
+        <f>('Blue channel'!D6+'Green channel'!D6+'Red channel'!D6)/3</f>
+        <v>2718.39</v>
+      </c>
+      <c r="F9" s="3">
+        <f>('Blue channel'!K6+'Green channel'!K6+'Red channel'!K6)/3</f>
+        <v>748.89666666666665</v>
+      </c>
+      <c r="G9" s="3">
+        <f>('Blue channel'!E6+'Green channel'!E6+'Red channel'!E6)/3</f>
+        <v>686.74666666666656</v>
+      </c>
+      <c r="H9" s="3">
+        <f>('Blue channel'!H6+'Green channel'!H6+'Red channel'!H6)/3</f>
+        <v>622.94333333333327</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <f>('Blue channel'!O6+'Green channel'!O6+'Red channel'!O6)/3</f>
+        <v>84.913333333333327</v>
+      </c>
+      <c r="K9" s="3">
+        <f>('Blue channel'!L6+'Green channel'!L6+'Red channel'!L6)/3</f>
+        <v>69.089999999999989</v>
+      </c>
+      <c r="L9" s="3">
+        <f>('Blue channel'!I6+'Green channel'!I6+'Red channel'!I6)/3</f>
         <v>43.203333333333326</v>
       </c>
-      <c r="G9" s="1">
-        <f>('Blue channel'!G9+'Green channel'!G9+'Red channel'!G9)/3</f>
-        <v>3151.1733333333336</v>
-      </c>
-      <c r="H9" s="1">
-        <f>('Blue channel'!H9+'Green channel'!H9+'Red channel'!H9)/3</f>
-        <v>801.46333333333325</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="1">
-        <f>('Blue channel'!J9+'Green channel'!J9+'Red channel'!J9)/3</f>
-        <v>761.13666666666677</v>
-      </c>
-      <c r="K9" s="1">
-        <f>('Blue channel'!K9+'Green channel'!K9+'Red channel'!K9)/3</f>
-        <v>928.07666666666648</v>
-      </c>
-      <c r="L9" s="1">
-        <f>('Blue channel'!L9+'Green channel'!L9+'Red channel'!L9)/3</f>
-        <v>27.97</v>
-      </c>
-      <c r="M9" s="1">
-        <f>('Blue channel'!M9+'Green channel'!M9+'Red channel'!M9)/3</f>
-        <v>880.30666666666673</v>
-      </c>
-      <c r="N9" s="1">
-        <f>('Blue channel'!N9+'Green channel'!N9+'Red channel'!N9)/3</f>
-        <v>3309.7999999999997</v>
-      </c>
-      <c r="O9" s="1">
-        <f>('Blue channel'!O9+'Green channel'!O9+'Red channel'!O9)/3</f>
-        <v>59.523333333333341</v>
-      </c>
-      <c r="P9" s="1">
-        <f>('Blue channel'!P9+'Green channel'!P9+'Red channel'!P9)/3</f>
-        <v>844.92333333333329</v>
-      </c>
-      <c r="Q9" s="1">
-        <f>('Blue channel'!Q9+'Green channel'!Q9+'Red channel'!Q9)/3</f>
-        <v>3452.89</v>
-      </c>
-      <c r="R9" s="1">
-        <f>('Blue channel'!R9+'Green channel'!R9+'Red channel'!R9)/3</f>
-        <v>7763.7099999999991</v>
+      <c r="M9" s="3">
+        <f>('Blue channel'!J6+'Green channel'!J6+'Red channel'!J6)/3</f>
+        <v>976.74000000000012</v>
+      </c>
+      <c r="N9" s="3">
+        <f>('Blue channel'!P6+'Green channel'!P6+'Red channel'!P6)/3</f>
+        <v>1101.1400000000001</v>
+      </c>
+      <c r="O9" s="3">
+        <f>('Blue channel'!M6+'Green channel'!M6+'Red channel'!M6)/3</f>
+        <v>1127.3433333333332</v>
+      </c>
+      <c r="P9" s="3">
+        <f>('Blue channel'!N6+'Green channel'!N6+'Red channel'!N6)/3</f>
+        <v>3755.3833333333337</v>
+      </c>
+      <c r="Q9" s="3">
+        <f>('Blue channel'!Q6+'Green channel'!Q6+'Red channel'!Q6)/3</f>
+        <v>3923.1666666666665</v>
+      </c>
+      <c r="R9" s="3">
+        <f>('Blue channel'!R6+'Green channel'!R6+'Red channel'!R6)/3</f>
+        <v>8441.7933333333331</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.53300000000000003</v>
+        <v>0.6</v>
       </c>
       <c r="B10">
-        <v>34</v>
-      </c>
-      <c r="C10" s="1">
-        <f>('Blue channel'!C10+'Green channel'!C10+'Red channel'!C10)/3</f>
-        <v>11876.11</v>
-      </c>
-      <c r="D10" s="1">
-        <f>('Blue channel'!D10+'Green channel'!D10+'Red channel'!D10)/3</f>
-        <v>6800.4533333333338</v>
-      </c>
-      <c r="E10" s="1">
-        <f>('Blue channel'!E10+'Green channel'!E10+'Red channel'!E10)/3</f>
-        <v>3194.4366666666665</v>
-      </c>
-      <c r="F10" s="1">
-        <f>('Blue channel'!F10+'Green channel'!F10+'Red channel'!F10)/3</f>
-        <v>976.74000000000012</v>
-      </c>
-      <c r="G10" s="1">
-        <f>('Blue channel'!G10+'Green channel'!G10+'Red channel'!G10)/3</f>
-        <v>6865.2333333333327</v>
-      </c>
-      <c r="H10" s="1">
-        <f>('Blue channel'!H10+'Green channel'!H10+'Red channel'!H10)/3</f>
-        <v>3026.6299999999997</v>
-      </c>
-      <c r="I10" s="1">
-        <f>('Blue channel'!I10+'Green channel'!I10+'Red channel'!I10)/3</f>
-        <v>761.13666666666677</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="1">
-        <f>('Blue channel'!K10+'Green channel'!K10+'Red channel'!K10)/3</f>
-        <v>3261.8833333333332</v>
-      </c>
-      <c r="L10" s="1">
-        <f>('Blue channel'!L10+'Green channel'!L10+'Red channel'!L10)/3</f>
-        <v>780.70000000000016</v>
-      </c>
-      <c r="M10" s="1">
-        <f>('Blue channel'!M10+'Green channel'!M10+'Red channel'!M10)/3</f>
-        <v>33.79</v>
-      </c>
-      <c r="N10" s="1">
-        <f>('Blue channel'!N10+'Green channel'!N10+'Red channel'!N10)/3</f>
-        <v>958.95666666666659</v>
-      </c>
-      <c r="O10" s="1">
-        <f>('Blue channel'!O10+'Green channel'!O10+'Red channel'!O10)/3</f>
+        <v>28</v>
+      </c>
+      <c r="C10" s="3">
+        <f>('Blue channel'!C15+'Green channel'!C15+'Red channel'!C15)/3</f>
+        <v>6300.8433333333332</v>
+      </c>
+      <c r="D10" s="3">
+        <f>('Blue channel'!G15+'Green channel'!G15+'Red channel'!G15)/3</f>
+        <v>2814.7233333333334</v>
+      </c>
+      <c r="E10" s="3">
+        <f>('Blue channel'!D15+'Green channel'!D15+'Red channel'!D15)/3</f>
+        <v>2802.5933333333337</v>
+      </c>
+      <c r="F10" s="3">
+        <f>('Blue channel'!K15+'Green channel'!K15+'Red channel'!K15)/3</f>
+        <v>737.39</v>
+      </c>
+      <c r="G10" s="3">
+        <f>('Blue channel'!E15+'Green channel'!E15+'Red channel'!E15)/3</f>
+        <v>759.54333333333341</v>
+      </c>
+      <c r="H10" s="3">
+        <f>('Blue channel'!H15+'Green channel'!H15+'Red channel'!H15)/3</f>
+        <v>649.99333333333334</v>
+      </c>
+      <c r="I10" s="3">
+        <f>('Blue channel'!F15+'Green channel'!F15+'Red channel'!F15)/3</f>
+        <v>84.913333333333327</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <f>('Blue channel'!L15+'Green channel'!L15+'Red channel'!L15)/3</f>
+        <v>35.35</v>
+      </c>
+      <c r="L10" s="3">
+        <f>('Blue channel'!I15+'Green channel'!I15+'Red channel'!I15)/3</f>
+        <v>59.523333333333341</v>
+      </c>
+      <c r="M10" s="3">
+        <f>('Blue channel'!J15+'Green channel'!J15+'Red channel'!J15)/3</f>
         <v>985.2166666666667</v>
       </c>
-      <c r="P10" s="1">
-        <f>('Blue channel'!P10+'Green channel'!P10+'Red channel'!P10)/3</f>
-        <v>60.04</v>
-      </c>
-      <c r="Q10" s="1">
-        <f>('Blue channel'!Q10+'Green channel'!Q10+'Red channel'!Q10)/3</f>
-        <v>1048.4033333333334</v>
-      </c>
-      <c r="R10" s="1">
-        <f>('Blue channel'!R10+'Green channel'!R10+'Red channel'!R10)/3</f>
-        <v>3786.1166666666668</v>
+      <c r="N10" s="3">
+        <f>('Blue channel'!P15+'Green channel'!P15+'Red channel'!P15)/3</f>
+        <v>1014.1633333333333</v>
+      </c>
+      <c r="O10" s="3">
+        <f>('Blue channel'!M15+'Green channel'!M15+'Red channel'!M15)/3</f>
+        <v>1085.0866666666668</v>
+      </c>
+      <c r="P10" s="3">
+        <f>('Blue channel'!N15+'Green channel'!N15+'Red channel'!N15)/3</f>
+        <v>3709.7666666666664</v>
+      </c>
+      <c r="Q10" s="3">
+        <f>('Blue channel'!Q15+'Green channel'!Q15+'Red channel'!Q15)/3</f>
+        <v>3830.5533333333333</v>
+      </c>
+      <c r="R10" s="3">
+        <f>('Blue channel'!R15+'Green channel'!R15+'Red channel'!R15)/3</f>
+        <v>8349</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -4200,425 +4198,425 @@
         <v>0.56599999999999995</v>
       </c>
       <c r="B11">
-        <v>28</v>
-      </c>
-      <c r="C11" s="1">
-        <f>('Blue channel'!C11+'Green channel'!C11+'Red channel'!C11)/3</f>
-        <v>2822.5933333333337</v>
-      </c>
-      <c r="D11" s="1">
-        <f>('Blue channel'!D11+'Green channel'!D11+'Red channel'!D11)/3</f>
-        <v>717.78666666666652</v>
-      </c>
-      <c r="E11" s="1">
-        <f>('Blue channel'!E11+'Green channel'!E11+'Red channel'!E11)/3</f>
-        <v>51.993333333333332</v>
-      </c>
-      <c r="F11" s="1">
-        <f>('Blue channel'!F11+'Green channel'!F11+'Red channel'!F11)/3</f>
-        <v>748.89666666666665</v>
-      </c>
-      <c r="G11" s="1">
-        <f>('Blue channel'!G11+'Green channel'!G11+'Red channel'!G11)/3</f>
-        <v>720.68666666666661</v>
-      </c>
-      <c r="H11" s="1">
-        <f>('Blue channel'!H11+'Green channel'!H11+'Red channel'!H11)/3</f>
-        <v>31</v>
-      </c>
-      <c r="I11" s="1">
-        <f>('Blue channel'!I11+'Green channel'!I11+'Red channel'!I11)/3</f>
-        <v>928.07666666666648</v>
-      </c>
-      <c r="J11" s="1">
-        <f>('Blue channel'!J11+'Green channel'!J11+'Red channel'!J11)/3</f>
-        <v>3261.8833333333332</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L11" s="1">
-        <f>('Blue channel'!L11+'Green channel'!L11+'Red channel'!L11)/3</f>
+        <v>30</v>
+      </c>
+      <c r="C11" s="3">
+        <f>('Blue channel'!C12+'Green channel'!C12+'Red channel'!C12)/3</f>
+        <v>6776.4533333333338</v>
+      </c>
+      <c r="D11" s="3">
+        <f>('Blue channel'!G12+'Green channel'!G12+'Red channel'!G12)/3</f>
+        <v>3141.4966666666674</v>
+      </c>
+      <c r="E11" s="3">
+        <f>('Blue channel'!D12+'Green channel'!D12+'Red channel'!D12)/3</f>
+        <v>3115.2466666666664</v>
+      </c>
+      <c r="F11" s="3">
+        <f>('Blue channel'!K12+'Green channel'!K12+'Red channel'!K12)/3</f>
         <v>909.01666666666677</v>
       </c>
-      <c r="M11" s="1">
-        <f>('Blue channel'!M11+'Green channel'!M11+'Red channel'!M11)/3</f>
-        <v>3480.0699999999997</v>
-      </c>
-      <c r="N11" s="1">
-        <f>('Blue channel'!N11+'Green channel'!N11+'Red channel'!N11)/3</f>
-        <v>7569.6499999999987</v>
-      </c>
-      <c r="O11" s="1">
-        <f>('Blue channel'!O11+'Green channel'!O11+'Red channel'!O11)/3</f>
-        <v>737.39</v>
-      </c>
-      <c r="P11" s="1">
-        <f>('Blue channel'!P11+'Green channel'!P11+'Red channel'!P11)/3</f>
-        <v>3375.9233333333336</v>
-      </c>
-      <c r="Q11" s="1">
-        <f>('Blue channel'!Q11+'Green channel'!Q11+'Red channel'!Q11)/3</f>
-        <v>7758.4433333333327</v>
-      </c>
-      <c r="R11" s="1">
-        <f>('Blue channel'!R11+'Green channel'!R11+'Red channel'!R11)/3</f>
-        <v>13797.333333333334</v>
+      <c r="G11" s="3">
+        <f>('Blue channel'!E12+'Green channel'!E12+'Red channel'!E12)/3</f>
+        <v>906.04333333333341</v>
+      </c>
+      <c r="H11" s="3">
+        <f>('Blue channel'!H12+'Green channel'!H12+'Red channel'!H12)/3</f>
+        <v>801.28666666666675</v>
+      </c>
+      <c r="I11" s="3">
+        <f>('Blue channel'!F12+'Green channel'!F12+'Red channel'!F12)/3</f>
+        <v>69.089999999999989</v>
+      </c>
+      <c r="J11" s="3">
+        <f>('Blue channel'!O12+'Green channel'!O12+'Red channel'!O12)/3</f>
+        <v>35.35</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <f>('Blue channel'!I12+'Green channel'!I12+'Red channel'!I12)/3</f>
+        <v>27.97</v>
+      </c>
+      <c r="M11" s="3">
+        <f>('Blue channel'!J12+'Green channel'!J12+'Red channel'!J12)/3</f>
+        <v>780.70000000000016</v>
+      </c>
+      <c r="N11" s="3">
+        <f>('Blue channel'!P12+'Green channel'!P12+'Red channel'!P12)/3</f>
+        <v>834.65666666666664</v>
+      </c>
+      <c r="O11" s="3">
+        <f>('Blue channel'!M12+'Green channel'!M12+'Red channel'!M12)/3</f>
+        <v>881.22666666666657</v>
+      </c>
+      <c r="P11" s="3">
+        <f>('Blue channel'!N12+'Green channel'!N12+'Red channel'!N12)/3</f>
+        <v>3328.84</v>
+      </c>
+      <c r="Q11" s="3">
+        <f>('Blue channel'!Q12+'Green channel'!Q12+'Red channel'!Q12)/3</f>
+        <v>3457.33</v>
+      </c>
+      <c r="R11" s="3">
+        <f>('Blue channel'!R12+'Green channel'!R12+'Red channel'!R12)/3</f>
+        <v>7782.5666666666666</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.56599999999999995</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="B12">
-        <v>30</v>
-      </c>
-      <c r="C12" s="1">
-        <f>('Blue channel'!C12+'Green channel'!C12+'Red channel'!C12)/3</f>
-        <v>6776.4533333333338</v>
-      </c>
-      <c r="D12" s="1">
-        <f>('Blue channel'!D12+'Green channel'!D12+'Red channel'!D12)/3</f>
-        <v>3115.2466666666664</v>
-      </c>
-      <c r="E12" s="1">
-        <f>('Blue channel'!E12+'Green channel'!E12+'Red channel'!E12)/3</f>
-        <v>906.04333333333341</v>
-      </c>
-      <c r="F12" s="1">
-        <f>('Blue channel'!F12+'Green channel'!F12+'Red channel'!F12)/3</f>
-        <v>69.089999999999989</v>
-      </c>
-      <c r="G12" s="1">
-        <f>('Blue channel'!G12+'Green channel'!G12+'Red channel'!G12)/3</f>
-        <v>3141.4966666666674</v>
-      </c>
-      <c r="H12" s="1">
-        <f>('Blue channel'!H12+'Green channel'!H12+'Red channel'!H12)/3</f>
-        <v>801.28666666666675</v>
-      </c>
-      <c r="I12" s="1">
-        <f>('Blue channel'!I12+'Green channel'!I12+'Red channel'!I12)/3</f>
+        <v>32</v>
+      </c>
+      <c r="C12" s="3">
+        <f>('Blue channel'!C9+'Green channel'!C9+'Red channel'!C9)/3</f>
+        <v>6785.0400000000009</v>
+      </c>
+      <c r="D12" s="3">
+        <f>('Blue channel'!G9+'Green channel'!G9+'Red channel'!G9)/3</f>
+        <v>3151.1733333333336</v>
+      </c>
+      <c r="E12" s="3">
+        <f>('Blue channel'!D9+'Green channel'!D9+'Red channel'!D9)/3</f>
+        <v>3114.686666666667</v>
+      </c>
+      <c r="F12" s="3">
+        <f>('Blue channel'!K9+'Green channel'!K9+'Red channel'!K9)/3</f>
+        <v>928.07666666666648</v>
+      </c>
+      <c r="G12" s="3">
+        <f>('Blue channel'!E9+'Green channel'!E9+'Red channel'!E9)/3</f>
+        <v>895.80666666666673</v>
+      </c>
+      <c r="H12" s="3">
+        <f>('Blue channel'!H9+'Green channel'!H9+'Red channel'!H9)/3</f>
+        <v>801.46333333333325</v>
+      </c>
+      <c r="I12" s="3">
+        <f>('Blue channel'!F9+'Green channel'!F9+'Red channel'!F9)/3</f>
+        <v>43.203333333333326</v>
+      </c>
+      <c r="J12" s="3">
+        <f>('Blue channel'!O9+'Green channel'!O9+'Red channel'!O9)/3</f>
+        <v>59.523333333333341</v>
+      </c>
+      <c r="K12" s="3">
+        <f>('Blue channel'!L9+'Green channel'!L9+'Red channel'!L9)/3</f>
         <v>27.97</v>
       </c>
-      <c r="J12" s="1">
-        <f>('Blue channel'!J12+'Green channel'!J12+'Red channel'!J12)/3</f>
-        <v>780.70000000000016</v>
-      </c>
-      <c r="K12" s="1">
-        <f>('Blue channel'!K12+'Green channel'!K12+'Red channel'!K12)/3</f>
-        <v>909.01666666666677</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M12" s="1">
-        <f>('Blue channel'!M12+'Green channel'!M12+'Red channel'!M12)/3</f>
-        <v>881.22666666666657</v>
-      </c>
-      <c r="N12" s="1">
-        <f>('Blue channel'!N12+'Green channel'!N12+'Red channel'!N12)/3</f>
-        <v>3328.84</v>
-      </c>
-      <c r="O12" s="1">
-        <f>('Blue channel'!O12+'Green channel'!O12+'Red channel'!O12)/3</f>
-        <v>35.35</v>
-      </c>
-      <c r="P12" s="1">
-        <f>('Blue channel'!P12+'Green channel'!P12+'Red channel'!P12)/3</f>
-        <v>834.65666666666664</v>
-      </c>
-      <c r="Q12" s="1">
-        <f>('Blue channel'!Q12+'Green channel'!Q12+'Red channel'!Q12)/3</f>
-        <v>3457.33</v>
-      </c>
-      <c r="R12" s="1">
-        <f>('Blue channel'!R12+'Green channel'!R12+'Red channel'!R12)/3</f>
-        <v>7782.5666666666666</v>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <f>('Blue channel'!J9+'Green channel'!J9+'Red channel'!J9)/3</f>
+        <v>761.13666666666677</v>
+      </c>
+      <c r="N12" s="3">
+        <f>('Blue channel'!P9+'Green channel'!P9+'Red channel'!P9)/3</f>
+        <v>844.92333333333329</v>
+      </c>
+      <c r="O12" s="3">
+        <f>('Blue channel'!M9+'Green channel'!M9+'Red channel'!M9)/3</f>
+        <v>880.30666666666673</v>
+      </c>
+      <c r="P12" s="3">
+        <f>('Blue channel'!N9+'Green channel'!N9+'Red channel'!N9)/3</f>
+        <v>3309.7999999999997</v>
+      </c>
+      <c r="Q12" s="3">
+        <f>('Blue channel'!Q9+'Green channel'!Q9+'Red channel'!Q9)/3</f>
+        <v>3452.89</v>
+      </c>
+      <c r="R12" s="3">
+        <f>('Blue channel'!R9+'Green channel'!R9+'Red channel'!R9)/3</f>
+        <v>7763.7099999999991</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="B13">
+        <v>34</v>
+      </c>
+      <c r="C13" s="3">
+        <f>('Blue channel'!C10+'Green channel'!C10+'Red channel'!C10)/3</f>
+        <v>11876.11</v>
+      </c>
+      <c r="D13" s="3">
+        <f>('Blue channel'!G10+'Green channel'!G10+'Red channel'!G10)/3</f>
+        <v>6865.2333333333327</v>
+      </c>
+      <c r="E13" s="3">
+        <f>('Blue channel'!D10+'Green channel'!D10+'Red channel'!D10)/3</f>
+        <v>6800.4533333333338</v>
+      </c>
+      <c r="F13" s="3">
+        <f>('Blue channel'!K10+'Green channel'!K10+'Red channel'!K10)/3</f>
+        <v>3261.8833333333332</v>
+      </c>
+      <c r="G13" s="3">
+        <f>('Blue channel'!E10+'Green channel'!E10+'Red channel'!E10)/3</f>
+        <v>3194.4366666666665</v>
+      </c>
+      <c r="H13" s="3">
+        <f>('Blue channel'!H10+'Green channel'!H10+'Red channel'!H10)/3</f>
+        <v>3026.6299999999997</v>
+      </c>
+      <c r="I13" s="3">
+        <f>('Blue channel'!F10+'Green channel'!F10+'Red channel'!F10)/3</f>
+        <v>976.74000000000012</v>
+      </c>
+      <c r="J13" s="3">
+        <f>('Blue channel'!O10+'Green channel'!O10+'Red channel'!O10)/3</f>
+        <v>985.2166666666667</v>
+      </c>
+      <c r="K13" s="3">
+        <f>('Blue channel'!L10+'Green channel'!L10+'Red channel'!L10)/3</f>
+        <v>780.70000000000016</v>
+      </c>
+      <c r="L13" s="3">
+        <f>('Blue channel'!I10+'Green channel'!I10+'Red channel'!I10)/3</f>
+        <v>761.13666666666677</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <f>('Blue channel'!P10+'Green channel'!P10+'Red channel'!P10)/3</f>
+        <v>60.04</v>
+      </c>
+      <c r="O13" s="3">
+        <f>('Blue channel'!M10+'Green channel'!M10+'Red channel'!M10)/3</f>
+        <v>33.79</v>
+      </c>
+      <c r="P13" s="3">
+        <f>('Blue channel'!N10+'Green channel'!N10+'Red channel'!N10)/3</f>
+        <v>958.95666666666659</v>
+      </c>
+      <c r="Q13" s="3">
+        <f>('Blue channel'!Q10+'Green channel'!Q10+'Red channel'!Q10)/3</f>
+        <v>1048.4033333333334</v>
+      </c>
+      <c r="R13" s="3">
+        <f>('Blue channel'!R10+'Green channel'!R10+'Red channel'!R10)/3</f>
+        <v>3786.1166666666668</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.6</v>
+      </c>
+      <c r="B14">
+        <v>30</v>
+      </c>
+      <c r="C14" s="3">
+        <f>('Blue channel'!C16+'Green channel'!C16+'Red channel'!C16)/3</f>
+        <v>12154.116666666667</v>
+      </c>
+      <c r="D14" s="3">
+        <f>('Blue channel'!G16+'Green channel'!G16+'Red channel'!G16)/3</f>
+        <v>7058.4766666666665</v>
+      </c>
+      <c r="E14" s="3">
+        <f>('Blue channel'!D16+'Green channel'!D16+'Red channel'!D16)/3</f>
+        <v>7022.7633333333333</v>
+      </c>
+      <c r="F14" s="3">
+        <f>('Blue channel'!K16+'Green channel'!K16+'Red channel'!K16)/3</f>
+        <v>3375.9233333333336</v>
+      </c>
+      <c r="G14" s="3">
+        <f>('Blue channel'!E16+'Green channel'!E16+'Red channel'!E16)/3</f>
+        <v>3365.4833333333336</v>
+      </c>
+      <c r="H14" s="3">
+        <f>('Blue channel'!H16+'Green channel'!H16+'Red channel'!H16)/3</f>
+        <v>3164.123333333333</v>
+      </c>
+      <c r="I14" s="3">
+        <f>('Blue channel'!F16+'Green channel'!F16+'Red channel'!F16)/3</f>
+        <v>1101.1400000000001</v>
+      </c>
+      <c r="J14" s="3">
+        <f>('Blue channel'!O16+'Green channel'!O16+'Red channel'!O16)/3</f>
+        <v>1014.1633333333333</v>
+      </c>
+      <c r="K14" s="3">
+        <f>('Blue channel'!L16+'Green channel'!L16+'Red channel'!L16)/3</f>
+        <v>834.65666666666664</v>
+      </c>
+      <c r="L14" s="3">
+        <f>('Blue channel'!I16+'Green channel'!I16+'Red channel'!I16)/3</f>
+        <v>844.92333333333329</v>
+      </c>
+      <c r="M14" s="3">
+        <f>('Blue channel'!J16+'Green channel'!J16+'Red channel'!J16)/3</f>
+        <v>60.04</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <f>('Blue channel'!M16+'Green channel'!M16+'Red channel'!M16)/3</f>
+        <v>29.826666666666664</v>
+      </c>
+      <c r="P14" s="3">
+        <f>('Blue channel'!N16+'Green channel'!N16+'Red channel'!N16)/3</f>
+        <v>901.71</v>
+      </c>
+      <c r="Q14" s="3">
+        <f>('Blue channel'!Q16+'Green channel'!Q16+'Red channel'!Q16)/3</f>
+        <v>954.42000000000007</v>
+      </c>
+      <c r="R14" s="3">
+        <f>('Blue channel'!R16+'Green channel'!R16+'Red channel'!R16)/3</f>
+        <v>3644.85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>0.56599999999999995</v>
       </c>
-      <c r="B13">
+      <c r="B15">
         <v>32</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C15" s="3">
         <f>('Blue channel'!C13+'Green channel'!C13+'Red channel'!C13)/3</f>
         <v>12329.37</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D15" s="3">
+        <f>('Blue channel'!G13+'Green channel'!G13+'Red channel'!G13)/3</f>
+        <v>7199.8533333333335</v>
+      </c>
+      <c r="E15" s="3">
         <f>('Blue channel'!D13+'Green channel'!D13+'Red channel'!D13)/3</f>
         <v>7148.6699999999992</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F15" s="3">
+        <f>('Blue channel'!K13+'Green channel'!K13+'Red channel'!K13)/3</f>
+        <v>3480.0699999999997</v>
+      </c>
+      <c r="G15" s="3">
         <f>('Blue channel'!E13+'Green channel'!E13+'Red channel'!E13)/3</f>
         <v>3441.7033333333334</v>
       </c>
-      <c r="F13" s="1">
+      <c r="H15" s="3">
+        <f>('Blue channel'!H13+'Green channel'!H13+'Red channel'!H13)/3</f>
+        <v>3253.0933333333337</v>
+      </c>
+      <c r="I15" s="3">
         <f>('Blue channel'!F13+'Green channel'!F13+'Red channel'!F13)/3</f>
         <v>1127.3433333333332</v>
       </c>
-      <c r="G13" s="1">
-        <f>('Blue channel'!G13+'Green channel'!G13+'Red channel'!G13)/3</f>
-        <v>7199.8533333333335</v>
-      </c>
-      <c r="H13" s="1">
-        <f>('Blue channel'!H13+'Green channel'!H13+'Red channel'!H13)/3</f>
-        <v>3253.0933333333337</v>
-      </c>
-      <c r="I13" s="1">
+      <c r="J15" s="3">
+        <f>('Blue channel'!O13+'Green channel'!O13+'Red channel'!O13)/3</f>
+        <v>1085.0866666666668</v>
+      </c>
+      <c r="K15" s="3">
+        <f>('Blue channel'!L13+'Green channel'!L13+'Red channel'!L13)/3</f>
+        <v>881.22666666666657</v>
+      </c>
+      <c r="L15" s="3">
         <f>('Blue channel'!I13+'Green channel'!I13+'Red channel'!I13)/3</f>
         <v>880.30666666666673</v>
       </c>
-      <c r="J13" s="1">
+      <c r="M15" s="3">
         <f>('Blue channel'!J13+'Green channel'!J13+'Red channel'!J13)/3</f>
         <v>33.79</v>
       </c>
-      <c r="K13" s="1">
-        <f>('Blue channel'!K13+'Green channel'!K13+'Red channel'!K13)/3</f>
-        <v>3480.0699999999997</v>
-      </c>
-      <c r="L13" s="1">
-        <f>('Blue channel'!L13+'Green channel'!L13+'Red channel'!L13)/3</f>
-        <v>881.22666666666657</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N13" s="1">
+      <c r="N15" s="3">
+        <f>('Blue channel'!P13+'Green channel'!P13+'Red channel'!P13)/3</f>
+        <v>29.826666666666664</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
         <f>('Blue channel'!N13+'Green channel'!N13+'Red channel'!N13)/3</f>
         <v>834.87666666666667</v>
       </c>
-      <c r="O13" s="1">
-        <f>('Blue channel'!O13+'Green channel'!O13+'Red channel'!O13)/3</f>
-        <v>1085.0866666666668</v>
-      </c>
-      <c r="P13" s="1">
-        <f>('Blue channel'!P13+'Green channel'!P13+'Red channel'!P13)/3</f>
-        <v>29.826666666666664</v>
-      </c>
-      <c r="Q13" s="1">
+      <c r="Q15" s="3">
         <f>('Blue channel'!Q13+'Green channel'!Q13+'Red channel'!Q13)/3</f>
         <v>904.18333333333339</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R15" s="3">
         <f>('Blue channel'!R13+'Green channel'!R13+'Red channel'!R13)/3</f>
         <v>3529.0333333333333</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>0.56599999999999995</v>
       </c>
-      <c r="B14">
+      <c r="B16">
         <v>34</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C16" s="3">
         <f>('Blue channel'!C14+'Green channel'!C14+'Red channel'!C14)/3</f>
         <v>19280.850000000002</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D16" s="3">
+        <f>('Blue channel'!G14+'Green channel'!G14+'Red channel'!G14)/3</f>
+        <v>12716.529999999999</v>
+      </c>
+      <c r="E16" s="3">
         <f>('Blue channel'!D14+'Green channel'!D14+'Red channel'!D14)/3</f>
         <v>12641.816666666666</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F16" s="3">
+        <f>('Blue channel'!K14+'Green channel'!K14+'Red channel'!K14)/3</f>
+        <v>7569.6499999999987</v>
+      </c>
+      <c r="G16" s="3">
         <f>('Blue channel'!E14+'Green channel'!E14+'Red channel'!E14)/3</f>
         <v>7490.2733333333335</v>
       </c>
-      <c r="F14" s="1">
+      <c r="H16" s="3">
+        <f>('Blue channel'!H14+'Green channel'!H14+'Red channel'!H14)/3</f>
+        <v>7222.7733333333335</v>
+      </c>
+      <c r="I16" s="3">
         <f>('Blue channel'!F14+'Green channel'!F14+'Red channel'!F14)/3</f>
         <v>3755.3833333333337</v>
       </c>
-      <c r="G14" s="1">
-        <f>('Blue channel'!G14+'Green channel'!G14+'Red channel'!G14)/3</f>
-        <v>12716.529999999999</v>
-      </c>
-      <c r="H14" s="1">
-        <f>('Blue channel'!H14+'Green channel'!H14+'Red channel'!H14)/3</f>
-        <v>7222.7733333333335</v>
-      </c>
-      <c r="I14" s="1">
+      <c r="J16" s="3">
+        <f>('Blue channel'!O14+'Green channel'!O14+'Red channel'!O14)/3</f>
+        <v>3709.7666666666664</v>
+      </c>
+      <c r="K16" s="3">
+        <f>('Blue channel'!L14+'Green channel'!L14+'Red channel'!L14)/3</f>
+        <v>3328.84</v>
+      </c>
+      <c r="L16" s="3">
         <f>('Blue channel'!I14+'Green channel'!I14+'Red channel'!I14)/3</f>
         <v>3309.7999999999997</v>
       </c>
-      <c r="J14" s="1">
+      <c r="M16" s="3">
         <f>('Blue channel'!J14+'Green channel'!J14+'Red channel'!J14)/3</f>
         <v>958.95666666666659</v>
       </c>
-      <c r="K14" s="1">
-        <f>('Blue channel'!K14+'Green channel'!K14+'Red channel'!K14)/3</f>
-        <v>7569.6499999999987</v>
-      </c>
-      <c r="L14" s="1">
-        <f>('Blue channel'!L14+'Green channel'!L14+'Red channel'!L14)/3</f>
-        <v>3328.84</v>
-      </c>
-      <c r="M14" s="1">
+      <c r="N16" s="3">
+        <f>('Blue channel'!P14+'Green channel'!P14+'Red channel'!P14)/3</f>
+        <v>901.71</v>
+      </c>
+      <c r="O16" s="3">
         <f>('Blue channel'!M14+'Green channel'!M14+'Red channel'!M14)/3</f>
         <v>834.87666666666667</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O14" s="1">
-        <f>('Blue channel'!O14+'Green channel'!O14+'Red channel'!O14)/3</f>
-        <v>3709.7666666666664</v>
-      </c>
-      <c r="P14" s="1">
-        <f>('Blue channel'!P14+'Green channel'!P14+'Red channel'!P14)/3</f>
-        <v>901.71</v>
-      </c>
-      <c r="Q14" s="1">
+      <c r="P16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="3">
         <f>('Blue channel'!Q14+'Green channel'!Q14+'Red channel'!Q14)/3</f>
         <v>29.183333333333334</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R16" s="3">
         <f>('Blue channel'!R14+'Green channel'!R14+'Red channel'!R14)/3</f>
         <v>994.15333333333331</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>0.6</v>
-      </c>
-      <c r="B15">
-        <v>28</v>
-      </c>
-      <c r="C15" s="1">
-        <f>('Blue channel'!C15+'Green channel'!C15+'Red channel'!C15)/3</f>
-        <v>6300.8433333333332</v>
-      </c>
-      <c r="D15" s="1">
-        <f>('Blue channel'!D15+'Green channel'!D15+'Red channel'!D15)/3</f>
-        <v>2802.5933333333337</v>
-      </c>
-      <c r="E15" s="1">
-        <f>('Blue channel'!E15+'Green channel'!E15+'Red channel'!E15)/3</f>
-        <v>759.54333333333341</v>
-      </c>
-      <c r="F15" s="1">
-        <f>('Blue channel'!F15+'Green channel'!F15+'Red channel'!F15)/3</f>
-        <v>84.913333333333327</v>
-      </c>
-      <c r="G15" s="1">
-        <f>('Blue channel'!G15+'Green channel'!G15+'Red channel'!G15)/3</f>
-        <v>2814.7233333333334</v>
-      </c>
-      <c r="H15" s="1">
-        <f>('Blue channel'!H15+'Green channel'!H15+'Red channel'!H15)/3</f>
-        <v>649.99333333333334</v>
-      </c>
-      <c r="I15" s="1">
-        <f>('Blue channel'!I15+'Green channel'!I15+'Red channel'!I15)/3</f>
-        <v>59.523333333333341</v>
-      </c>
-      <c r="J15" s="1">
-        <f>('Blue channel'!J15+'Green channel'!J15+'Red channel'!J15)/3</f>
-        <v>985.2166666666667</v>
-      </c>
-      <c r="K15" s="1">
-        <f>('Blue channel'!K15+'Green channel'!K15+'Red channel'!K15)/3</f>
-        <v>737.39</v>
-      </c>
-      <c r="L15" s="1">
-        <f>('Blue channel'!L15+'Green channel'!L15+'Red channel'!L15)/3</f>
-        <v>35.35</v>
-      </c>
-      <c r="M15" s="1">
-        <f>('Blue channel'!M15+'Green channel'!M15+'Red channel'!M15)/3</f>
-        <v>1085.0866666666668</v>
-      </c>
-      <c r="N15" s="1">
-        <f>('Blue channel'!N15+'Green channel'!N15+'Red channel'!N15)/3</f>
-        <v>3709.7666666666664</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P15" s="1">
-        <f>('Blue channel'!P15+'Green channel'!P15+'Red channel'!P15)/3</f>
-        <v>1014.1633333333333</v>
-      </c>
-      <c r="Q15" s="1">
-        <f>('Blue channel'!Q15+'Green channel'!Q15+'Red channel'!Q15)/3</f>
-        <v>3830.5533333333333</v>
-      </c>
-      <c r="R15" s="1">
-        <f>('Blue channel'!R15+'Green channel'!R15+'Red channel'!R15)/3</f>
-        <v>8349</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>0.6</v>
-      </c>
-      <c r="B16">
-        <v>30</v>
-      </c>
-      <c r="C16" s="1">
-        <f>('Blue channel'!C16+'Green channel'!C16+'Red channel'!C16)/3</f>
-        <v>12154.116666666667</v>
-      </c>
-      <c r="D16" s="1">
-        <f>('Blue channel'!D16+'Green channel'!D16+'Red channel'!D16)/3</f>
-        <v>7022.7633333333333</v>
-      </c>
-      <c r="E16" s="1">
-        <f>('Blue channel'!E16+'Green channel'!E16+'Red channel'!E16)/3</f>
-        <v>3365.4833333333336</v>
-      </c>
-      <c r="F16" s="1">
-        <f>('Blue channel'!F16+'Green channel'!F16+'Red channel'!F16)/3</f>
-        <v>1101.1400000000001</v>
-      </c>
-      <c r="G16" s="1">
-        <f>('Blue channel'!G16+'Green channel'!G16+'Red channel'!G16)/3</f>
-        <v>7058.4766666666665</v>
-      </c>
-      <c r="H16" s="1">
-        <f>('Blue channel'!H16+'Green channel'!H16+'Red channel'!H16)/3</f>
-        <v>3164.123333333333</v>
-      </c>
-      <c r="I16" s="1">
-        <f>('Blue channel'!I16+'Green channel'!I16+'Red channel'!I16)/3</f>
-        <v>844.92333333333329</v>
-      </c>
-      <c r="J16" s="1">
-        <f>('Blue channel'!J16+'Green channel'!J16+'Red channel'!J16)/3</f>
-        <v>60.04</v>
-      </c>
-      <c r="K16" s="1">
-        <f>('Blue channel'!K16+'Green channel'!K16+'Red channel'!K16)/3</f>
-        <v>3375.9233333333336</v>
-      </c>
-      <c r="L16" s="1">
-        <f>('Blue channel'!L16+'Green channel'!L16+'Red channel'!L16)/3</f>
-        <v>834.65666666666664</v>
-      </c>
-      <c r="M16" s="1">
-        <f>('Blue channel'!M16+'Green channel'!M16+'Red channel'!M16)/3</f>
-        <v>29.826666666666664</v>
-      </c>
-      <c r="N16" s="1">
-        <f>('Blue channel'!N16+'Green channel'!N16+'Red channel'!N16)/3</f>
-        <v>901.71</v>
-      </c>
-      <c r="O16" s="1">
-        <f>('Blue channel'!O16+'Green channel'!O16+'Red channel'!O16)/3</f>
-        <v>1014.1633333333333</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q16" s="1">
-        <f>('Blue channel'!Q16+'Green channel'!Q16+'Red channel'!Q16)/3</f>
-        <v>954.42000000000007</v>
-      </c>
-      <c r="R16" s="1">
-        <f>('Blue channel'!R16+'Green channel'!R16+'Red channel'!R16)/3</f>
-        <v>3644.85</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -4628,66 +4626,66 @@
       <c r="B17">
         <v>32</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="3">
         <f>('Blue channel'!C17+'Green channel'!C17+'Red channel'!C17)/3</f>
         <v>19610.93</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="3">
+        <f>('Blue channel'!G17+'Green channel'!G17+'Red channel'!G17)/3</f>
+        <v>12977.62</v>
+      </c>
+      <c r="E17" s="3">
         <f>('Blue channel'!D17+'Green channel'!D17+'Red channel'!D17)/3</f>
         <v>12915.373333333335</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="3">
+        <f>('Blue channel'!K17+'Green channel'!K17+'Red channel'!K17)/3</f>
+        <v>7758.4433333333327</v>
+      </c>
+      <c r="G17" s="3">
         <f>('Blue channel'!E17+'Green channel'!E17+'Red channel'!E17)/3</f>
         <v>7712.3499999999995</v>
       </c>
-      <c r="F17" s="1">
+      <c r="H17" s="3">
+        <f>('Blue channel'!H17+'Green channel'!H17+'Red channel'!H17)/3</f>
+        <v>7423.0366666666669</v>
+      </c>
+      <c r="I17" s="3">
         <f>('Blue channel'!F17+'Green channel'!F17+'Red channel'!F17)/3</f>
         <v>3923.1666666666665</v>
       </c>
-      <c r="G17" s="1">
-        <f>('Blue channel'!G17+'Green channel'!G17+'Red channel'!G17)/3</f>
-        <v>12977.62</v>
-      </c>
-      <c r="H17" s="1">
-        <f>('Blue channel'!H17+'Green channel'!H17+'Red channel'!H17)/3</f>
-        <v>7423.0366666666669</v>
-      </c>
-      <c r="I17" s="1">
+      <c r="J17" s="3">
+        <f>('Blue channel'!O17+'Green channel'!O17+'Red channel'!O17)/3</f>
+        <v>3830.5533333333333</v>
+      </c>
+      <c r="K17" s="3">
+        <f>('Blue channel'!L17+'Green channel'!L17+'Red channel'!L17)/3</f>
+        <v>3457.33</v>
+      </c>
+      <c r="L17" s="3">
         <f>('Blue channel'!I17+'Green channel'!I17+'Red channel'!I17)/3</f>
         <v>3452.89</v>
       </c>
-      <c r="J17" s="1">
+      <c r="M17" s="3">
         <f>('Blue channel'!J17+'Green channel'!J17+'Red channel'!J17)/3</f>
         <v>1048.4033333333334</v>
       </c>
-      <c r="K17" s="1">
-        <f>('Blue channel'!K17+'Green channel'!K17+'Red channel'!K17)/3</f>
-        <v>7758.4433333333327</v>
-      </c>
-      <c r="L17" s="1">
-        <f>('Blue channel'!L17+'Green channel'!L17+'Red channel'!L17)/3</f>
-        <v>3457.33</v>
-      </c>
-      <c r="M17" s="1">
+      <c r="N17" s="3">
+        <f>('Blue channel'!P17+'Green channel'!P17+'Red channel'!P17)/3</f>
+        <v>954.42000000000007</v>
+      </c>
+      <c r="O17" s="3">
         <f>('Blue channel'!M17+'Green channel'!M17+'Red channel'!M17)/3</f>
         <v>904.18333333333339</v>
       </c>
-      <c r="N17" s="1">
+      <c r="P17" s="3">
         <f>('Blue channel'!N17+'Green channel'!N17+'Red channel'!N17)/3</f>
         <v>29.183333333333334</v>
       </c>
-      <c r="O17" s="1">
-        <f>('Blue channel'!O17+'Green channel'!O17+'Red channel'!O17)/3</f>
-        <v>3830.5533333333333</v>
-      </c>
-      <c r="P17" s="1">
-        <f>('Blue channel'!P17+'Green channel'!P17+'Red channel'!P17)/3</f>
-        <v>954.42000000000007</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R17" s="1">
+      <c r="Q17" s="4">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
         <f>('Blue channel'!R17+'Green channel'!R17+'Red channel'!R17)/3</f>
         <v>921.60666666666668</v>
       </c>
@@ -4699,73 +4697,73 @@
       <c r="B18">
         <v>34</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="3">
         <f>('Blue channel'!C18+'Green channel'!C18+'Red channel'!C18)/3</f>
         <v>28630.819999999996</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="3">
+        <f>('Blue channel'!G18+'Green channel'!G18+'Red channel'!G18)/3</f>
+        <v>20507.413333333334</v>
+      </c>
+      <c r="E18" s="3">
         <f>('Blue channel'!D18+'Green channel'!D18+'Red channel'!D18)/3</f>
         <v>20416.176666666666</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="3">
+        <f>('Blue channel'!K18+'Green channel'!K18+'Red channel'!K18)/3</f>
+        <v>13797.333333333334</v>
+      </c>
+      <c r="G18" s="3">
         <f>('Blue channel'!E18+'Green channel'!E18+'Red channel'!E18)/3</f>
         <v>13710.873333333335</v>
       </c>
-      <c r="F18" s="1">
+      <c r="H18" s="3">
+        <f>('Blue channel'!H18+'Green channel'!H18+'Red channel'!H18)/3</f>
+        <v>13343.093333333332</v>
+      </c>
+      <c r="I18" s="3">
         <f>('Blue channel'!F18+'Green channel'!F18+'Red channel'!F18)/3</f>
         <v>8441.7933333333331</v>
       </c>
-      <c r="G18" s="1">
-        <f>('Blue channel'!G18+'Green channel'!G18+'Red channel'!G18)/3</f>
-        <v>20507.413333333334</v>
-      </c>
-      <c r="H18" s="1">
-        <f>('Blue channel'!H18+'Green channel'!H18+'Red channel'!H18)/3</f>
-        <v>13343.093333333332</v>
-      </c>
-      <c r="I18" s="1">
+      <c r="J18" s="3">
+        <f>('Blue channel'!O18+'Green channel'!O18+'Red channel'!O18)/3</f>
+        <v>8349</v>
+      </c>
+      <c r="K18" s="3">
+        <f>('Blue channel'!L18+'Green channel'!L18+'Red channel'!L18)/3</f>
+        <v>7782.5666666666666</v>
+      </c>
+      <c r="L18" s="3">
         <f>('Blue channel'!I18+'Green channel'!I18+'Red channel'!I18)/3</f>
         <v>7763.7099999999991</v>
       </c>
-      <c r="J18" s="1">
+      <c r="M18" s="3">
         <f>('Blue channel'!J18+'Green channel'!J18+'Red channel'!J18)/3</f>
         <v>3786.1166666666668</v>
       </c>
-      <c r="K18" s="1">
-        <f>('Blue channel'!K18+'Green channel'!K18+'Red channel'!K18)/3</f>
-        <v>13797.333333333334</v>
-      </c>
-      <c r="L18" s="1">
-        <f>('Blue channel'!L18+'Green channel'!L18+'Red channel'!L18)/3</f>
-        <v>7782.5666666666666</v>
-      </c>
-      <c r="M18" s="1">
+      <c r="N18" s="3">
+        <f>('Blue channel'!P18+'Green channel'!P18+'Red channel'!P18)/3</f>
+        <v>3644.85</v>
+      </c>
+      <c r="O18" s="3">
         <f>('Blue channel'!M18+'Green channel'!M18+'Red channel'!M18)/3</f>
         <v>3529.0333333333333</v>
       </c>
-      <c r="N18" s="1">
+      <c r="P18" s="3">
         <f>('Blue channel'!N18+'Green channel'!N18+'Red channel'!N18)/3</f>
         <v>994.15333333333331</v>
       </c>
-      <c r="O18" s="1">
-        <f>('Blue channel'!O18+'Green channel'!O18+'Red channel'!O18)/3</f>
-        <v>8349</v>
-      </c>
-      <c r="P18" s="1">
-        <f>('Blue channel'!P18+'Green channel'!P18+'Red channel'!P18)/3</f>
-        <v>3644.85</v>
-      </c>
-      <c r="Q18" s="1">
+      <c r="Q18" s="3">
         <f>('Blue channel'!Q18+'Green channel'!Q18+'Red channel'!Q18)/3</f>
         <v>921.60666666666668</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
+      <c r="R18" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:R18">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/Postprocessing_Ambiguity/Ambiguity.xlsx
+++ b/Postprocessing_Ambiguity/Ambiguity.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dario\Documents\SemThes\Postprocessing_Ambiguity\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dario\Documents\0_Github_Projects\SemThes\Postprocessing_Ambiguity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D74503-AA5C-44F0-A4D2-E7F05B4672D7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE3224D-A076-4835-A206-E0E9BDDC033B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17025" activeTab="3" xr2:uid="{91B92DB0-04EC-4F95-AF3A-3AC6549801F8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17025" activeTab="2" xr2:uid="{91B92DB0-04EC-4F95-AF3A-3AC6549801F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Blue channel" sheetId="1" r:id="rId1"/>
@@ -43,9 +43,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -87,12 +94,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2478,1014 +2494,1028 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209472AB-72EB-4765-A096-A1DF736EDF13}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="42.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.5703125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.85546875" style="5"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:18" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="5">
         <v>0.5</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="5">
         <v>0.5</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="5">
         <v>0.5</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="5">
         <v>0.5</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="5">
         <v>0.53300000000000003</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="5">
         <v>0.53300000000000003</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="5">
         <v>0.53300000000000003</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="5">
         <v>0.53300000000000003</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="5">
         <v>0.56599999999999995</v>
       </c>
-      <c r="L1">
+      <c r="L1" s="5">
         <v>0.56599999999999995</v>
       </c>
-      <c r="M1">
+      <c r="M1" s="5">
         <v>0.56599999999999995</v>
       </c>
-      <c r="N1">
+      <c r="N1" s="5">
         <v>0.56599999999999995</v>
       </c>
-      <c r="O1">
+      <c r="O1" s="5">
         <v>0.6</v>
       </c>
-      <c r="P1">
+      <c r="P1" s="5">
         <v>0.6</v>
       </c>
-      <c r="Q1">
+      <c r="Q1" s="5">
         <v>0.6</v>
       </c>
-      <c r="R1">
+      <c r="R1" s="5">
         <v>0.6</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:18" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="5">
         <v>28</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="5">
         <v>30</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="5">
         <v>32</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="5">
         <v>34</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="5">
         <v>28</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="5">
         <v>30</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="5">
         <v>32</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="5">
         <v>34</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="5">
         <v>28</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="5">
         <v>30</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="5">
         <v>32</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="5">
         <v>34</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="5">
         <v>28</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="5">
         <v>30</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="5">
         <v>32</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="5">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:18" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
         <v>0.5</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="5">
         <v>28</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="C3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
         <v>662.83</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="7">
         <v>2542.27</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="7">
         <v>5652.02</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="6">
         <v>605.44000000000005</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="7">
         <v>2579.4699999999998</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="7">
         <v>5927.63</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="7">
         <v>10611.45</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="7">
         <v>2315.6799999999998</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="7">
         <v>5766.81</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="7">
         <v>10697.4</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="7">
         <v>17035.84</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="7">
         <v>5207.45</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="7">
         <v>10341.9</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="7">
         <v>17013.64</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="7">
         <v>25184.45</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:18" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
         <v>0.5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <v>30</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="6">
         <v>662.83</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="D4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
         <v>651.69000000000005</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="7">
         <v>2519.58</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="6">
         <v>16.32</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="6">
         <v>670.27</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="7">
         <v>2705.8</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="7">
         <v>6094.17</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="6">
         <v>540.41</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="7">
         <v>2600</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="7">
         <v>6159.05</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="7">
         <v>11156.71</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="7">
         <v>2226.5300000000002</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="7">
         <v>5889.85</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="7">
         <v>11138.29</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="7">
         <v>17915.490000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:18" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
         <v>0.5</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="5">
         <v>32</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="7">
         <v>2542.27</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="6">
         <v>651.69000000000005</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="E5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
         <v>651.80999999999995</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="6">
         <v>710.09</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="6">
         <v>13.7</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="6">
         <v>747.66</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="7">
         <v>2842.69</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="6">
         <v>24.29</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="6">
         <v>692.36</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="7">
         <v>2887.34</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="7">
         <v>6543.03</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="6">
         <v>510.41</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="7">
         <v>2705.68</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="7">
         <v>6531.66</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="7">
         <v>11917.97</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:18" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
         <v>0.5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="5">
         <v>34</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="7">
         <v>5652.02</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="7">
         <v>2519.58</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="6">
         <v>651.80999999999995</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="F6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
         <v>2634.8</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="6">
         <v>633.17999999999995</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="6">
         <v>21.59</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="6">
         <v>818.09</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="6">
         <v>773.82</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="6">
         <v>21.24</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="6">
         <v>844.75</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="7">
         <v>3150.54</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="6">
         <v>26.82</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="6">
         <v>747.51</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="7">
         <v>3141.09</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6" s="7">
         <v>7123.87</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:18" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <v>0.53300000000000003</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="5">
         <v>28</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="6">
         <v>605.44000000000005</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="6">
         <v>16.32</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="6">
         <v>710.09</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="7">
         <v>2634.8</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
+      <c r="G7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
         <v>729.41</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="7">
         <v>2825.43</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="7">
         <v>6272.75</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="6">
         <v>593.22</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="7">
         <v>2716.55</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="7">
         <v>6336.8</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="7">
         <v>11396.57</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="7">
         <v>2334.4299999999998</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="7">
         <v>6063.67</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="7">
         <v>11378.49</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="7">
         <v>18218.990000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:18" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
         <v>0.53300000000000003</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="5">
         <v>30</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="7">
         <v>2579.4699999999998</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="6">
         <v>670.27</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="6">
         <v>13.7</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="6">
         <v>633.17999999999995</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="6">
         <v>729.41</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
+      <c r="H8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
         <v>727.25</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="7">
         <v>2803.51</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="6">
         <v>23.06</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="6">
         <v>673.13</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="7">
         <v>2848.48</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="7">
         <v>6486.65</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="6">
         <v>492.31</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="7">
         <v>2666.66</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8" s="7">
         <v>6472.22</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8" s="7">
         <v>11840.16</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:18" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
         <v>0.53300000000000003</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="5">
         <v>32</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="7">
         <v>5927.63</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="7">
         <v>2705.8</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="6">
         <v>747.66</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="6">
         <v>21.59</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="7">
         <v>2825.43</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="6">
         <v>727.25</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
+      <c r="I9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
         <v>718.57</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="6">
         <v>878.26</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="6">
         <v>17.170000000000002</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="6">
         <v>741.12</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="7">
         <v>2950.64</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="6">
         <v>42.53</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="6">
         <v>650.79999999999995</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9" s="7">
         <v>2942.08</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R9" s="7">
         <v>6822.53</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:18" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
         <v>0.53300000000000003</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="5">
         <v>34</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="7">
         <v>10611.45</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="7">
         <v>6094.17</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="7">
         <v>2842.69</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="6">
         <v>818.09</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="7">
         <v>6272.75</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="7">
         <v>2803.51</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="6">
         <v>718.57</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
+      <c r="J10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" s="7">
         <v>3094.88</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="6">
         <v>774.97</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="6">
         <v>16.39</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10" s="6">
         <v>803.3</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="6">
         <v>999.59</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="6">
         <v>20.12</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10" s="6">
         <v>798.94</v>
       </c>
-      <c r="R10" s="2">
+      <c r="R10" s="7">
         <v>3197.51</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:18" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
         <v>0.56599999999999995</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="5">
         <v>28</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="7">
         <v>2315.6799999999998</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="6">
         <v>540.41</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="6">
         <v>24.29</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="6">
         <v>773.82</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="6">
         <v>593.22</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="6">
         <v>23.06</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="6">
         <v>878.26</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="7">
         <v>3094.88</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
+      <c r="K11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6">
         <v>817.86</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="7">
         <v>3141.8</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="7">
         <v>6924.49</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="6">
         <v>616.22</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11" s="7">
         <v>2950.23</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q11" s="7">
         <v>6908.86</v>
       </c>
-      <c r="R11" s="2">
+      <c r="R11" s="7">
         <v>12428.62</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:18" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
         <v>0.56599999999999995</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="5">
         <v>30</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="7">
         <v>5766.81</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="7">
         <v>2600</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="6">
         <v>692.36</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="6">
         <v>21.24</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="7">
         <v>2716.55</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="6">
         <v>673.13</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="6">
         <v>17.170000000000002</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="6">
         <v>774.97</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="6">
         <v>817.86</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M12" s="1">
+      <c r="L12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" s="6">
         <v>798.35</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12" s="7">
         <v>3065.95</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="6">
         <v>29.64</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="6">
         <v>704.43</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="Q12" s="7">
         <v>3056.16</v>
       </c>
-      <c r="R12" s="2">
+      <c r="R12" s="7">
         <v>6999.33</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:18" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
         <v>0.56599999999999995</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="5">
         <v>32</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="7">
         <v>10697.4</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="7">
         <v>6159.05</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="7">
         <v>2887.34</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="6">
         <v>844.75</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="7">
         <v>6336.8</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="7">
         <v>2848.48</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="6">
         <v>741.12</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="6">
         <v>16.39</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="7">
         <v>3141.8</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="6">
         <v>798.35</v>
       </c>
-      <c r="M13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N13" s="1">
+      <c r="M13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13" s="6">
         <v>779.03</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O13" s="7">
         <v>1027.22</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="6">
         <v>19.72</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13" s="6">
         <v>774.4</v>
       </c>
-      <c r="R13" s="2">
+      <c r="R13" s="7">
         <v>3151.18</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:18" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
         <v>0.56599999999999995</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="5">
         <v>34</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="7">
         <v>17035.84</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="7">
         <v>11156.71</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="7">
         <v>6543.03</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="7">
         <v>3150.54</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="7">
         <v>11396.57</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="7">
         <v>6486.65</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="7">
         <v>2950.64</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="6">
         <v>803.3</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="7">
         <v>6924.49</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="7">
         <v>3065.95</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="6">
         <v>779.03</v>
       </c>
-      <c r="N14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O14" s="2">
+      <c r="N14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7">
         <v>3502.18</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="6">
         <v>879.1</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14" s="6">
         <v>14.16</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R14" s="6">
         <v>845.04</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" spans="1:18" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
         <v>0.6</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="5">
         <v>28</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="7">
         <v>5207.45</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="7">
         <v>2226.5300000000002</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="6">
         <v>510.41</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="6">
         <v>26.82</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="7">
         <v>2334.4299999999998</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="6">
         <v>492.31</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="6">
         <v>42.53</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="6">
         <v>999.59</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="6">
         <v>616.22</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="6">
         <v>29.64</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="7">
         <v>1027.22</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N15" s="7">
         <v>3502.18</v>
       </c>
-      <c r="O15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P15" s="1">
+      <c r="O15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="P15" s="6">
         <v>918.66</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="Q15" s="7">
         <v>3490.97</v>
       </c>
-      <c r="R15" s="2">
+      <c r="R15" s="7">
         <v>7650.08</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16" spans="1:18" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
         <v>0.6</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="5">
         <v>30</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="7">
         <v>10341.9</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="7">
         <v>5889.85</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="7">
         <v>2705.68</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="6">
         <v>747.51</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="7">
         <v>6063.67</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="7">
         <v>2666.66</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="6">
         <v>650.79999999999995</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="6">
         <v>20.12</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="7">
         <v>2950.23</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="6">
         <v>704.43</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="6">
         <v>19.72</v>
       </c>
-      <c r="N16" s="1">
+      <c r="N16" s="6">
         <v>879.1</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16" s="6">
         <v>918.66</v>
       </c>
-      <c r="P16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="1">
+      <c r="P16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="6">
         <v>873.24</v>
       </c>
-      <c r="R16" s="2">
+      <c r="R16" s="7">
         <v>3351.37</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" spans="1:18" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
         <v>0.6</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="5">
         <v>32</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="7">
         <v>17013.64</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="7">
         <v>11138.29</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="7">
         <v>6531.66</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="7">
         <v>3141.09</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="7">
         <v>11378.49</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="7">
         <v>6472.22</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="7">
         <v>2942.08</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="6">
         <v>798.94</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="7">
         <v>6908.86</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17" s="7">
         <v>3056.16</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="6">
         <v>774.4</v>
       </c>
-      <c r="N17" s="1">
+      <c r="N17" s="6">
         <v>14.16</v>
       </c>
-      <c r="O17" s="2">
+      <c r="O17" s="7">
         <v>3490.97</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17" s="6">
         <v>873.24</v>
       </c>
-      <c r="Q17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R17" s="1">
+      <c r="Q17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="R17" s="6">
         <v>849.07</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" spans="1:18" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
         <v>0.6</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="5">
         <v>34</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="7">
         <v>25184.45</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="7">
         <v>17915.490000000002</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="7">
         <v>11917.97</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="7">
         <v>7123.87</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="7">
         <v>18218.990000000002</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="7">
         <v>11840.16</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="7">
         <v>6822.53</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="7">
         <v>3197.51</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="7">
         <v>12428.62</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18" s="7">
         <v>6999.33</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M18" s="7">
         <v>3151.18</v>
       </c>
-      <c r="N18" s="1">
+      <c r="N18" s="6">
         <v>845.04</v>
       </c>
-      <c r="O18" s="2">
+      <c r="O18" s="7">
         <v>7650.08</v>
       </c>
-      <c r="P18" s="2">
+      <c r="P18" s="7">
         <v>3351.37</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q18" s="6">
         <v>849.07</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="R18" s="6" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3503,6 +3533,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="60" orientation="landscape" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3510,7 +3541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B41B264-21C3-4259-AC5E-A19DF24612E5}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
